--- a/Model_Parameters Store model.xlsx
+++ b/Model_Parameters Store model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oweisberg\Documents\GitHub\recycle_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C868AAB-CEE4-47C9-BCE9-693A70DEC8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72F11C-81B4-4B09-A104-D90780AE1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="129">
   <si>
     <t>Mh</t>
   </si>
@@ -105,12 +105,6 @@
     <t>VmaxICh</t>
   </si>
   <si>
-    <t>Oh</t>
-  </si>
-  <si>
-    <t>Op</t>
-  </si>
-  <si>
     <t>E_ROSp</t>
   </si>
   <si>
@@ -427,6 +421,9 @@
   </si>
   <si>
     <t>QCminh</t>
+  </si>
+  <si>
+    <t>OverflowMode</t>
   </si>
 </sst>
 </file>
@@ -617,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,8 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,61 +1013,61 @@
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="O1" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="R1" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1079,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4">
         <v>1.157407407407407E-6</v>
@@ -1101,10 +1097,10 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O2" s="4">
         <f>E2/10</f>
@@ -1115,7 +1111,7 @@
         <v>1.157407407407407E-5</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R2" s="5">
         <v>1.157407407407407E-7</v>
@@ -1129,19 +1125,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4">
         <v>1.157407407407407E-6</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F46" si="0">E3*3600*24</f>
+        <f t="shared" ref="F3:F45" si="0">E3*3600*24</f>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="G3" s="5"/>
@@ -1151,10 +1147,10 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O3" s="4">
         <f>E3/5</f>
@@ -1165,7 +1161,7 @@
         <v>5.7870370370370351E-6</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R3" s="5">
         <v>1.157407407407407E-7</v>
@@ -1179,13 +1175,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="5">
         <v>0.6</v>
@@ -1198,10 +1194,10 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O4" s="5">
         <v>0.1</v>
@@ -1210,7 +1206,7 @@
         <v>0.9</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R4" s="5">
         <v>0.1</v>
@@ -1224,13 +1220,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5">
         <v>0.6</v>
@@ -1243,10 +1239,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O5" s="5">
         <v>0.1</v>
@@ -1255,7 +1251,7 @@
         <v>0.9</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R5" s="5">
         <v>0.1</v>
@@ -1269,13 +1265,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5">
         <v>7</v>
@@ -1288,10 +1284,10 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1304,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="13">
         <v>4.5</v>
@@ -1323,10 +1319,10 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -1336,16 +1332,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4">
         <v>1.157407407407407E-6</v>
@@ -1361,10 +1357,10 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O8" s="4">
         <f>E8/5</f>
@@ -1375,7 +1371,7 @@
         <v>5.7870370370370351E-6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R8" s="5">
         <v>1.157407407407407E-7</v>
@@ -1386,16 +1382,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4">
         <v>1.157407407407407E-6</v>
@@ -1411,10 +1407,10 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O9" s="4">
         <f>E9/10</f>
@@ -1425,7 +1421,7 @@
         <v>1.157407407407407E-5</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R9" s="5">
         <v>1.157407407407407E-7</v>
@@ -1439,13 +1435,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8">
         <v>0.1427507995452611</v>
@@ -1473,10 +1469,10 @@
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O10" s="5">
         <f>E10/5</f>
@@ -1487,7 +1483,7 @@
         <v>0.71375399772630543</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R10" s="5">
         <v>1.427507995452611E-2</v>
@@ -1501,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="8">
         <v>0.1427507995452611</v>
@@ -1520,10 +1516,10 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ref="O11:O21" si="2">E11/5</f>
@@ -1534,7 +1530,7 @@
         <v>0.71375399772630543</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R11" s="5">
         <v>1.427507995452611E-2</v>
@@ -1548,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="8">
         <v>0.1427507995452611</v>
@@ -1582,10 +1578,10 @@
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="2"/>
@@ -1596,7 +1592,7 @@
         <v>0.71375399772630543</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R12" s="5">
         <v>1.427507995452611E-2</v>
@@ -1610,13 +1606,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="8">
         <v>0.1427507995452611</v>
@@ -1629,10 +1625,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="2"/>
@@ -1643,7 +1639,7 @@
         <v>0.71375399772630543</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R13" s="5">
         <v>1.427507995452611E-2</v>
@@ -1657,13 +1653,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="8">
         <v>0.2502723352076287</v>
@@ -1676,10 +1672,10 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" ref="O14:O16" si="5">E14/10</f>
@@ -1690,7 +1686,7 @@
         <v>1.2513616760381434</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R14" s="5">
         <v>2.502723352076287E-2</v>
@@ -1704,13 +1700,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="8">
         <v>0.2502723352076287</v>
@@ -1723,10 +1719,10 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="5"/>
@@ -1737,7 +1733,7 @@
         <v>1.2513616760381434</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R15" s="5">
         <v>2.502723352076287E-2</v>
@@ -1751,13 +1747,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="8">
         <v>0.2502723352076287</v>
@@ -1770,10 +1766,10 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="5"/>
@@ -1784,7 +1780,7 @@
         <v>1.2513616760381434</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R16" s="5">
         <v>2.502723352076287E-2</v>
@@ -1798,13 +1794,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="8">
         <v>0.2502723352076287</v>
@@ -1817,10 +1813,10 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="2"/>
@@ -1831,7 +1827,7 @@
         <v>1.2513616760381434</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R17" s="5">
         <v>2.502723352076287E-2</v>
@@ -1845,13 +1841,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="4">
         <f>E19/5</f>
@@ -1878,10 +1874,10 @@
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="2"/>
@@ -1892,7 +1888,7 @@
         <v>8.1999999999999987E-5</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R18" s="5">
         <v>1.64E-6</v>
@@ -1906,13 +1902,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4">
         <v>8.2000000000000001E-5</v>
@@ -1928,10 +1924,10 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="2"/>
@@ -1942,7 +1938,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R19" s="5">
         <v>8.1999999999999994E-6</v>
@@ -1956,13 +1952,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4">
         <f>E21/5</f>
@@ -1989,10 +1985,10 @@
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="2"/>
@@ -2003,7 +1999,7 @@
         <v>6.3999999999999997E-5</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R20" s="5">
         <v>1.28E-6</v>
@@ -2017,13 +2013,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="4">
         <v>6.3999999999999997E-5</v>
@@ -2039,10 +2035,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="2"/>
@@ -2053,7 +2049,7 @@
         <v>3.1999999999999997E-4</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R21" s="5">
         <v>6.3999999999999997E-6</v>
@@ -2067,13 +2063,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4">
         <v>1.50462962962963E-5</v>
@@ -2089,10 +2085,10 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" ref="O22:O24" si="7">E22/10</f>
@@ -2103,7 +2099,7 @@
         <v>1.50462962962963E-4</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R22" s="5">
         <v>1.5046296296296301E-6</v>
@@ -2117,13 +2113,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="4">
         <v>1.50462962962963E-5</v>
@@ -2139,10 +2135,10 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="7"/>
@@ -2153,7 +2149,7 @@
         <v>1.50462962962963E-4</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R23" s="5">
         <v>1.5046296296296301E-6</v>
@@ -2167,13 +2163,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="4">
         <v>6.7708333333333344E-5</v>
@@ -2189,10 +2185,10 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="7"/>
@@ -2203,7 +2199,7 @@
         <v>6.7708333333333346E-4</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R24" s="5">
         <v>6.7708333333333347E-6</v>
@@ -2217,13 +2213,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -2239,10 +2235,10 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -2252,16 +2248,16 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2286,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -2299,70 +2295,83 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E27" s="4">
+        <v>6.4814814814814812E-7</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
       <c r="G27" s="5">
         <v>0</v>
       </c>
       <c r="H27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
       </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" ref="O27:O30" si="9">E27/10</f>
+        <v>6.4814814814814807E-8</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" ref="P27:P29" si="10">E27*10</f>
+        <v>6.4814814814814812E-6</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="5">
+        <v>6.4814814814814807E-8</v>
+      </c>
+      <c r="S27" s="10">
+        <v>6.4814814814814812E-6</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="4">
-        <v>6.4814814814814812E-7</v>
+        <v>4.0509259259259258E-7</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>5.5999999999999994E-2</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="G28" s="5">
         <v>0</v>
@@ -2381,48 +2390,48 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28:O31" si="9">E28/10</f>
-        <v>6.4814814814814807E-8</v>
+        <f t="shared" si="9"/>
+        <v>4.0509259259259258E-8</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28:P30" si="10">E28*10</f>
-        <v>6.4814814814814812E-6</v>
+        <f t="shared" si="10"/>
+        <v>4.050925925925926E-6</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R28" s="5">
-        <v>6.4814814814814807E-8</v>
+        <v>4.0509259259259258E-8</v>
       </c>
       <c r="S28" s="10">
-        <v>6.4814814814814812E-6</v>
+        <v>4.050925925925926E-6</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4">
-        <v>4.0509259259259258E-7</v>
+        <v>7.6967592592592601E-6</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="0"/>
-        <v>3.4999999999999996E-2</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G29" s="5">
         <v>0</v>
@@ -2441,231 +2450,219 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="9"/>
-        <v>4.0509259259259258E-8</v>
+        <v>7.6967592592592605E-7</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="10"/>
-        <v>4.050925925925926E-6</v>
+        <v>7.6967592592592601E-5</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R29" s="5">
-        <v>4.0509259259259258E-8</v>
+        <v>7.6967592592592605E-7</v>
       </c>
       <c r="S29" s="10">
-        <v>4.050925925925926E-6</v>
+        <v>7.6967592592592601E-5</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="4">
-        <v>7.6967592592592601E-6</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.2502723352076287</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8">
+        <f>$E30</f>
+        <v>0.2502723352076287</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" ref="H30:L30" si="11">$E30</f>
+        <v>0.2502723352076287</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="11"/>
+        <v>0.2502723352076287</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
+        <f t="shared" si="11"/>
+        <v>0.2502723352076287</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="11"/>
+        <v>0.2502723352076287</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="9"/>
-        <v>7.6967592592592605E-7</v>
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="10"/>
-        <v>7.6967592592592601E-5</v>
+        <f>E30*5</f>
+        <v>1.2513616760381434</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R30" s="5">
-        <v>7.6967592592592605E-7</v>
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="S30" s="10">
-        <v>7.6967592592592601E-5</v>
+        <v>2.5027233520762868</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="8">
-        <v>0.2502723352076287</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8">
-        <f>$E31</f>
-        <v>0.2502723352076287</v>
-      </c>
-      <c r="H31" s="8">
-        <f t="shared" ref="H31:L31" si="11">$E31</f>
-        <v>0.2502723352076287</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" si="11"/>
-        <v>0.2502723352076287</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8">
-        <f t="shared" si="11"/>
-        <v>0.2502723352076287</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="11"/>
-        <v>0.2502723352076287</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" s="4">
-        <f t="shared" si="9"/>
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="P31" s="4">
-        <f>E31*5</f>
-        <v>1.2513616760381434</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R31" s="5">
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="S31" s="10">
-        <v>2.5027233520762868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="E31" s="5">
         <f>0.01/3600/24</f>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G32" s="5">
-        <f>$E32</f>
+      <c r="G31" s="5">
+        <f>$E31</f>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="H32" s="5">
-        <f t="shared" ref="H32:L32" si="12">$E32</f>
+      <c r="H31" s="5">
+        <f t="shared" ref="H31:L31" si="12">$E31</f>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I31" s="5">
         <f t="shared" si="12"/>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J31" s="5">
         <f t="shared" si="12"/>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="12"/>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L31" s="5">
         <f t="shared" si="12"/>
         <v>1.1574074074074074E-7</v>
       </c>
+      <c r="M31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" ref="P31:P42" si="13">E31*10</f>
+        <v>1.1574074074074074E-6</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <v>1.1574074074074074E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.1574074074074101E-7</v>
+      </c>
+      <c r="F32" s="5">
+        <f>E32*3600*24</f>
+        <v>1.0000000000000023E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
       <c r="M32" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <f t="shared" ref="P32:P43" si="13">E32*10</f>
-        <v>1.1574074074074074E-6</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <v>1.1574074074074074E-6</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4">
         <v>1.1574074074074101E-7</v>
@@ -2691,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -2704,45 +2701,32 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F34" s="5">
-        <f>E34*3600*24</f>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2755,29 +2739,44 @@
         <v>107</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E35" s="8">
         <v>0.1427507995452611</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="G35" s="8">
+        <f>$E35</f>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" ref="H35:L35" si="14">$E35</f>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
       <c r="M35" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -2786,74 +2785,89 @@
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>109</v>
+      <c r="A36" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="8">
         <v>0.1427507995452611</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="8">
-        <f>$E36</f>
+      <c r="G36" s="5">
+        <f t="shared" ref="G36:L37" si="15">$E36</f>
         <v>0.1427507995452611</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" ref="H36:L36" si="14">$E36</f>
+      <c r="H36" s="5">
+        <f t="shared" si="15"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="I36" s="8">
-        <f t="shared" si="14"/>
+      <c r="I36" s="5">
+        <f t="shared" si="15"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8">
-        <f t="shared" si="14"/>
+      <c r="J36" s="5">
+        <f t="shared" si="15"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="L36" s="8">
-        <f t="shared" si="14"/>
+      <c r="K36" s="5">
+        <f t="shared" si="15"/>
         <v>0.1427507995452611</v>
       </c>
+      <c r="L36" s="5">
+        <f t="shared" si="15"/>
+        <v>0.1427507995452611</v>
+      </c>
       <c r="M36" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" ref="O36:O42" si="16">E36/10</f>
+        <v>1.427507995452611E-2</v>
+      </c>
+      <c r="P36" s="4">
+        <f t="shared" si="13"/>
+        <v>1.4275079954526109</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1.427507995452611E-2</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1.4275079954526109</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E37" s="8">
         <v>0.1427507995452611</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
-        <f t="shared" ref="G37:L38" si="15">$E37</f>
+        <f t="shared" si="15"/>
         <v>0.1427507995452611</v>
       </c>
       <c r="H37" s="5">
@@ -2877,21 +2891,21 @@
         <v>0.1427507995452611</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" ref="O37:O43" si="16">E37/10</f>
+        <f>E37/10</f>
         <v>1.427507995452611E-2</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="13"/>
+        <f>E37*10</f>
         <v>1.4275079954526109</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R37" s="5">
         <v>1.427507995452611E-2</v>
@@ -2902,88 +2916,85 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="4">
+        <v>6.4814814814814799E-17</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999988E-12</v>
+      </c>
       <c r="G38" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
+        <v>0</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
+        <v>0</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
+        <v>0</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O38" s="4">
-        <f>E38/10</f>
-        <v>1.427507995452611E-2</v>
+        <f t="shared" si="16"/>
+        <v>6.4814814814814798E-18</v>
       </c>
       <c r="P38" s="4">
-        <f>E38*10</f>
-        <v>1.4275079954526109</v>
+        <f t="shared" si="13"/>
+        <v>6.4814814814814797E-16</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R38" s="5">
-        <v>1.427507995452611E-2</v>
+        <v>6.4814814814814798E-18</v>
       </c>
       <c r="S38" s="10">
-        <v>1.4275079954526109</v>
+        <v>6.4814814814814797E-16</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E39" s="4">
-        <v>6.4814814814814799E-17</v>
+        <v>4.0509259259259248E-17</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="0"/>
-        <v>5.5999999999999988E-12</v>
+        <v>3.4999999999999988E-12</v>
       </c>
       <c r="G39" s="5">
         <v>0</v>
@@ -3004,48 +3015,49 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="16"/>
-        <v>6.4814814814814798E-18</v>
+        <v>4.050925925925925E-18</v>
       </c>
       <c r="P39" s="4">
         <f t="shared" si="13"/>
-        <v>6.4814814814814797E-16</v>
+        <v>4.0509259259259247E-16</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R39" s="5">
-        <v>6.4814814814814798E-18</v>
+        <v>4.050925925925925E-18</v>
       </c>
       <c r="S39" s="10">
-        <v>6.4814814814814797E-16</v>
+        <v>4.0509259259259247E-16</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4.0509259259259248E-17</v>
+        <v>76</v>
+      </c>
+      <c r="E40" s="5">
+        <f>0.01/3600/24</f>
+        <v>1.1574074074074074E-7</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>3.4999999999999988E-12</v>
+        <v>0.01</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
@@ -3059,48 +3071,50 @@
       <c r="J40" s="5">
         <v>0</v>
       </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
+      <c r="K40" s="8">
+        <f>E40</f>
+        <v>1.1574074074074074E-7</v>
+      </c>
+      <c r="L40" s="8">
+        <f>E40</f>
+        <v>1.1574074074074074E-7</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="16"/>
-        <v>4.050925925925925E-18</v>
+        <v>1.1574074074074074E-8</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="13"/>
-        <v>4.0509259259259247E-16</v>
+        <v>1.1574074074074074E-6</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R40" s="5">
-        <v>4.050925925925925E-18</v>
+        <v>1.1574074074074074E-8</v>
       </c>
       <c r="S40" s="10">
-        <v>4.0509259259259247E-16</v>
+        <v>1.1574074074074074E-6</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="5">
         <f>0.01/3600/24</f>
@@ -3131,10 +3145,10 @@
         <v>1.1574074074074074E-7</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="16"/>
@@ -3145,7 +3159,7 @@
         <v>1.1574074074074074E-6</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R41" s="5">
         <v>1.1574074074074074E-8</v>
@@ -3156,24 +3170,23 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="5">
-        <f>0.01/3600/24</f>
-        <v>1.1574074074074074E-7</v>
+        <v>77</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.1574074074074101E-7</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>1.0000000000000023E-2</v>
       </c>
       <c r="G42" s="5">
         <v>0</v>
@@ -3187,50 +3200,48 @@
       <c r="J42" s="5">
         <v>0</v>
       </c>
-      <c r="K42" s="8">
-        <f>E42</f>
-        <v>1.1574074074074074E-7</v>
-      </c>
-      <c r="L42" s="8">
-        <f>E42</f>
-        <v>1.1574074074074074E-7</v>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="16"/>
-        <v>1.1574074074074074E-8</v>
+        <v>1.15740740740741E-8</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="13"/>
-        <v>1.1574074074074074E-6</v>
+        <v>1.1574074074074101E-6</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R42" s="5">
-        <v>1.1574074074074074E-8</v>
+        <v>1.15740740740741E-8</v>
       </c>
       <c r="S42" s="10">
-        <v>1.1574074074074074E-6</v>
+        <v>1.1574074074074101E-6</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E43" s="4">
         <v>1.1574074074074101E-7</v>
@@ -3258,21 +3269,21 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="16"/>
+        <f>E43/10</f>
         <v>1.15740740740741E-8</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="13"/>
+        <f>E43*10</f>
         <v>1.1574074074074101E-6</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R43" s="5">
         <v>1.15740740740741E-8</v>
@@ -3283,78 +3294,54 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" s="4">
-        <v>1.1574074074074101E-7</v>
+        <v>2.083333333333333E-6</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O44" s="4">
-        <f>E44/10</f>
-        <v>1.15740740740741E-8</v>
-      </c>
-      <c r="P44" s="4">
-        <f>E44*10</f>
-        <v>1.1574074074074101E-6</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R44" s="5">
-        <v>1.15740740740741E-8</v>
-      </c>
-      <c r="S44" s="10">
-        <v>1.1574074074074101E-6</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E45" s="4">
         <v>2.083333333333333E-6</v>
@@ -3370,10 +3357,10 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -3383,24 +3370,21 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2.083333333333333E-6</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17999999999999997</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -3408,10 +3392,10 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -3421,16 +3405,16 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E47" s="5">
         <v>0.01</v>
@@ -3443,10 +3427,10 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -3455,20 +3439,20 @@
       <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>78</v>
+      <c r="A48" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E48" s="5">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -3478,10 +3462,10 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -3491,19 +3475,19 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -3513,10 +3497,10 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -3526,19 +3510,19 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E50" s="5">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -3548,10 +3532,10 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -3561,19 +3545,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -3583,10 +3567,10 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -3596,21 +3580,24 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F52" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" ref="F52:F53" si="17">E52*3600*24</f>
+        <v>3.024</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -3618,10 +3605,10 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -3631,22 +3618,22 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E53" s="4">
         <v>3.4999999999999997E-5</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" ref="F53:F54" si="17">E53*3600*24</f>
+        <f t="shared" si="17"/>
         <v>3.024</v>
       </c>
       <c r="G53" s="5"/>
@@ -3656,10 +3643,10 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -3669,35 +3656,45 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="E54" s="4">
-        <v>3.4999999999999997E-5</v>
+        <v>1.1574074074074101E-7</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="17"/>
-        <v>3.024</v>
-      </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+        <f t="shared" ref="F54:F55" si="18">E54*3600*24</f>
+        <v>1.0000000000000023E-2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
       <c r="M54" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -3706,118 +3703,105 @@
       <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="C55" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="26">
         <v>1.1574074074074101E-7</v>
       </c>
-      <c r="F55" s="5">
-        <f t="shared" ref="F55:F56" si="18">E55*3600*24</f>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="10"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="26">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F56" s="27">
+      <c r="F55" s="27">
         <f t="shared" si="18"/>
         <v>1.0000000000000023E-2</v>
       </c>
-      <c r="G56" s="27">
-        <v>0</v>
-      </c>
-      <c r="H56" s="27">
-        <v>0</v>
-      </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27">
-        <v>0</v>
-      </c>
-      <c r="K56" s="27">
-        <v>0</v>
-      </c>
-      <c r="L56" s="27">
-        <v>0</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
+      <c r="G55" s="27">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27">
+        <v>0</v>
+      </c>
+      <c r="K55" s="27">
+        <v>0</v>
+      </c>
+      <c r="L55" s="27">
+        <v>0</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="28"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="30">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E57" s="30">
-        <v>10</v>
-      </c>
-      <c r="F57" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3825,10 +3809,10 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -3838,21 +3822,21 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E58" s="30">
-        <v>4</v>
-      </c>
-      <c r="F58" s="31"/>
+        <v>10</v>
+      </c>
+      <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3860,10 +3844,10 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -3873,21 +3857,21 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E59" s="30">
-        <v>10</v>
-      </c>
-      <c r="F59" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3895,10 +3879,10 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
@@ -3906,43 +3890,8 @@
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="30">
-        <v>4</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:S56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3964,7 +3913,7 @@
   <sheetData>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -3972,7 +3921,7 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -3981,10 +3930,10 @@
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
@@ -3993,7 +3942,7 @@
         <v>1.9444444444444444E-6</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <f>0.4968 / (24*3600)</f>

--- a/Model_Parameters Store model.xlsx
+++ b/Model_Parameters Store model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oweisberg\Documents\GitHub\recycle_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osnat\Documents\GitHub\recycle_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72F11C-81B4-4B09-A104-D90780AE1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CACF7C-17F2-400A-AD72-DB1D71AF9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="135">
   <si>
     <t>Mh</t>
   </si>
@@ -424,13 +424,31 @@
   </si>
   <si>
     <t>OverflowMode</t>
+  </si>
+  <si>
+    <t>ROSMode</t>
+  </si>
+  <si>
+    <t>is ROS enabled</t>
+  </si>
+  <si>
+    <t>omegaP</t>
+  </si>
+  <si>
+    <t>1 / µmol/L</t>
+  </si>
+  <si>
+    <t>growth penalty of ROS</t>
+  </si>
+  <si>
+    <t>omegaH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +476,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -610,11 +633,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -686,6 +720,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,13 +1030,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
@@ -1011,7 +1052,7 @@
     <col min="15" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="60">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1070,7 +1111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1161,7 @@
         <v>1.1574074074074069E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1211,7 @@
         <v>1.1574074074074069E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1256,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1301,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1336,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1371,7 @@
       <c r="R7" s="13"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="9" t="s">
         <v>124</v>
       </c>
@@ -1380,7 +1421,7 @@
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="9" t="s">
         <v>125</v>
       </c>
@@ -1430,7 +1471,7 @@
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1533,7 @@
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1580,7 @@
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1601,7 +1642,7 @@
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1648,7 +1689,7 @@
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
@@ -1695,7 +1736,7 @@
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +1783,7 @@
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1830,7 @@
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +1877,7 @@
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -1851,11 +1892,11 @@
       </c>
       <c r="E18" s="4">
         <f>E19/5</f>
-        <v>1.6399999999999999E-5</v>
+        <v>7.6467122800187402E-6</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>1.41696</v>
+        <v>0.66067594099361915</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -1881,11 +1922,11 @@
       </c>
       <c r="O18" s="5">
         <f t="shared" si="2"/>
-        <v>3.2799999999999999E-6</v>
+        <v>1.5293424560037481E-6</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="3"/>
-        <v>8.1999999999999987E-5</v>
+        <v>3.8233561400093701E-5</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>67</v>
@@ -1897,7 +1938,7 @@
         <v>1.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1911,11 +1952,11 @@
         <v>77</v>
       </c>
       <c r="E19" s="4">
-        <v>8.2000000000000001E-5</v>
+        <v>3.8233561400093701E-5</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>7.0848000000000004</v>
+        <v>3.3033797049680955</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1931,11 +1972,11 @@
       </c>
       <c r="O19" s="5">
         <f t="shared" si="2"/>
-        <v>1.6399999999999999E-5</v>
+        <v>7.6467122800187402E-6</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="3"/>
-        <v>4.0999999999999999E-4</v>
+        <v>1.9116780700046852E-4</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>67</v>
@@ -1947,7 +1988,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1962,11 +2003,11 @@
       </c>
       <c r="E20" s="4">
         <f>E21/5</f>
-        <v>1.2799999999999999E-5</v>
+        <v>5.3526985960131182E-5</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>1.1059199999999998</v>
+        <v>4.6247315869553347</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1992,11 +2033,11 @@
       </c>
       <c r="O20" s="5">
         <f t="shared" si="2"/>
-        <v>2.5600000000000001E-6</v>
+        <v>1.0705397192026236E-5</v>
       </c>
       <c r="P20" s="5">
         <f t="shared" si="3"/>
-        <v>6.3999999999999997E-5</v>
+        <v>2.676349298006559E-4</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>67</v>
@@ -2008,7 +2049,7 @@
         <v>1.2799999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
@@ -2022,11 +2063,12 @@
         <v>77</v>
       </c>
       <c r="E21" s="4">
-        <v>6.3999999999999997E-5</v>
+        <f>E19 * 7</f>
+        <v>2.676349298006559E-4</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>5.5296000000000003</v>
+        <v>23.12365793477667</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -2042,11 +2084,11 @@
       </c>
       <c r="O21" s="5">
         <f t="shared" si="2"/>
-        <v>1.2799999999999999E-5</v>
+        <v>5.3526985960131182E-5</v>
       </c>
       <c r="P21" s="5">
         <f t="shared" si="3"/>
-        <v>3.1999999999999997E-4</v>
+        <v>1.3381746490032794E-3</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>67</v>
@@ -2058,7 +2100,7 @@
         <v>6.3999999999999994E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -2072,11 +2114,12 @@
         <v>76</v>
       </c>
       <c r="E22" s="4">
-        <v>1.50462962962963E-5</v>
+        <f>0.0000962487421256466/2</f>
+        <v>4.8124371062823299E-5</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>1.3000000000000003</v>
+        <v>4.1579456598279325</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2092,11 +2135,11 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" ref="O22:O24" si="7">E22/10</f>
-        <v>1.5046296296296301E-6</v>
+        <v>4.8124371062823301E-6</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" ref="P22:P24" si="8">E22*10</f>
-        <v>1.50462962962963E-4</v>
+        <v>4.8124371062823298E-4</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>67</v>
@@ -2108,7 +2151,7 @@
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
@@ -2122,11 +2165,12 @@
         <v>76</v>
       </c>
       <c r="E23" s="4">
-        <v>1.50462962962963E-5</v>
+        <f>E22</f>
+        <v>4.8124371062823299E-5</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>1.3000000000000003</v>
+        <v>4.1579456598279325</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2142,11 +2186,11 @@
       </c>
       <c r="O23" s="4">
         <f t="shared" si="7"/>
-        <v>1.5046296296296301E-6</v>
+        <v>4.8124371062823301E-6</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="8"/>
-        <v>1.50462962962963E-4</v>
+        <v>4.8124371062823298E-4</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>67</v>
@@ -2158,7 +2202,7 @@
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="9" t="s">
         <v>20</v>
       </c>
@@ -2172,11 +2216,12 @@
         <v>76</v>
       </c>
       <c r="E24" s="4">
-        <v>6.7708333333333344E-5</v>
+        <f>E23*4.5</f>
+        <v>2.1655966978270484E-4</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="0"/>
-        <v>5.8500000000000014</v>
+        <v>18.710755469225699</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2192,11 +2237,11 @@
       </c>
       <c r="O24" s="4">
         <f t="shared" si="7"/>
-        <v>6.7708333333333347E-6</v>
+        <v>2.1655966978270485E-5</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="8"/>
-        <v>6.7708333333333346E-4</v>
+        <v>2.1655966978270484E-3</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>67</v>
@@ -2208,7 +2253,7 @@
         <v>6.7708333333333346E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="9" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +2291,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="9" t="s">
         <v>128</v>
       </c>
@@ -2293,7 +2338,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
@@ -2353,7 +2398,7 @@
         <v>6.4814814814814812E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
@@ -2413,7 +2458,7 @@
         <v>4.050925925925926E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="9" t="s">
         <v>92</v>
       </c>
@@ -2473,7 +2518,7 @@
         <v>7.6967592592592601E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
@@ -2535,7 +2580,7 @@
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="9" t="s">
         <v>25</v>
       </c>
@@ -2603,7 +2648,7 @@
         <v>1.1574074074074074E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="22" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2696,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="22" t="s">
         <v>106</v>
       </c>
@@ -2699,7 +2744,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="22" t="s">
         <v>105</v>
       </c>
@@ -2734,7 +2779,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="22" t="s">
         <v>107</v>
       </c>
@@ -2784,7 +2829,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="9" t="s">
         <v>26</v>
       </c>
@@ -2849,7 +2894,7 @@
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="9" t="s">
         <v>27</v>
       </c>
@@ -2914,7 +2959,7 @@
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="9" t="s">
         <v>28</v>
       </c>
@@ -2976,7 +3021,7 @@
         <v>6.4814814814814797E-16</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
@@ -3038,7 +3083,7 @@
         <v>4.0509259259259247E-16</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="9" t="s">
         <v>30</v>
       </c>
@@ -3103,7 +3148,7 @@
         <v>1.1574074074074074E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="9" t="s">
         <v>31</v>
       </c>
@@ -3168,7 +3213,7 @@
         <v>1.1574074074074074E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="9" t="s">
         <v>32</v>
       </c>
@@ -3230,7 +3275,7 @@
         <v>1.1574074074074101E-6</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="9" t="s">
         <v>33</v>
       </c>
@@ -3292,7 +3337,7 @@
         <v>1.1574074074074101E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="9" t="s">
         <v>34</v>
       </c>
@@ -3330,7 +3375,7 @@
       <c r="R44" s="5"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="9" t="s">
         <v>35</v>
       </c>
@@ -3368,7 +3413,7 @@
       <c r="R45" s="5"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
@@ -3403,7 +3448,7 @@
       <c r="R46" s="5"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="9" t="s">
         <v>37</v>
       </c>
@@ -3438,7 +3483,7 @@
       <c r="R47" s="5"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="22" t="s">
         <v>95</v>
       </c>
@@ -3473,7 +3518,7 @@
       <c r="R48" s="5"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="22" t="s">
         <v>96</v>
       </c>
@@ -3508,7 +3553,7 @@
       <c r="R49" s="5"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="22" t="s">
         <v>97</v>
       </c>
@@ -3543,7 +3588,7 @@
       <c r="R50" s="5"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="22" t="s">
         <v>98</v>
       </c>
@@ -3578,7 +3623,7 @@
       <c r="R51" s="5"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="22" t="s">
         <v>103</v>
       </c>
@@ -3616,7 +3661,7 @@
       <c r="R52" s="5"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="22" t="s">
         <v>114</v>
       </c>
@@ -3654,7 +3699,7 @@
       <c r="R53" s="5"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="22" t="s">
         <v>108</v>
       </c>
@@ -3702,7 +3747,7 @@
       <c r="R54" s="5"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="23" t="s">
         <v>109</v>
       </c>
@@ -3750,7 +3795,7 @@
       <c r="R55" s="27"/>
       <c r="S55" s="28"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="29" t="s">
         <v>119</v>
       </c>
@@ -3785,7 +3830,7 @@
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="29" t="s">
         <v>120</v>
       </c>
@@ -3820,7 +3865,7 @@
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="29" t="s">
         <v>126</v>
       </c>
@@ -3855,7 +3900,7 @@
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="29" t="s">
         <v>127</v>
       </c>
@@ -3889,6 +3934,159 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="32">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N60" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>67</v>
+      </c>
+      <c r="N61" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" s="34">
+        <f t="shared" ref="O61:O62" si="19">E61/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="P61" s="34">
+        <f t="shared" ref="P61:P62" si="20">E61*10</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>67</v>
+      </c>
+      <c r="R61">
+        <v>1E-3</v>
+      </c>
+      <c r="S61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>66</v>
+      </c>
+      <c r="N62" t="s">
+        <v>67</v>
+      </c>
+      <c r="O62" s="34">
+        <f t="shared" si="19"/>
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="P62" s="34">
+        <f t="shared" si="20"/>
+        <v>1E-4</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>67</v>
+      </c>
+      <c r="R62">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="S62">
+        <v>1E-4</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3906,17 +4104,17 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6">
       <c r="D19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6">
       <c r="D20">
         <v>0.7</v>
       </c>
@@ -3924,7 +4122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6">
       <c r="D21">
         <f>D20/ 100</f>
         <v>6.9999999999999993E-3</v>
@@ -3936,7 +4134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6">
       <c r="D22">
         <f>D21/3600</f>
         <v>1.9444444444444444E-6</v>
@@ -3949,7 +4147,7 @@
         <v>5.75E-6</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6">
       <c r="D23">
         <f>0.3/D22</f>
         <v>154285.71428571429</v>

--- a/Model_Parameters Store model.xlsx
+++ b/Model_Parameters Store model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osnat\Documents\GitHub\recycle_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CACF7C-17F2-400A-AD72-DB1D71AF9291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9CB1AB-86AF-49E1-92E0-01400EC491E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
   <si>
     <t>Mh</t>
   </si>
@@ -252,9 +252,6 @@
     <t>logscale fitting</t>
   </si>
   <si>
-    <t>LEAK model hardcoded parameters</t>
-  </si>
-  <si>
     <t>MIN model hardcoded parameters</t>
   </si>
   <si>
@@ -351,18 +348,6 @@
     <t>Kmtbp</t>
   </si>
   <si>
-    <t>MROSp</t>
-  </si>
-  <si>
-    <t>MKROSp</t>
-  </si>
-  <si>
-    <t>MROSh</t>
-  </si>
-  <si>
-    <t>MKROSh</t>
-  </si>
-  <si>
     <t>gamma_DON2DINp</t>
   </si>
   <si>
@@ -370,12 +355,6 @@
   </si>
   <si>
     <t>1/ umolN/L /s</t>
-  </si>
-  <si>
-    <t>max ROS death rate</t>
-  </si>
-  <si>
-    <t>half-velocity constant for ROS impact on death</t>
   </si>
   <si>
     <t>DON2DIN breakdown rate</t>
@@ -496,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -519,136 +498,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -668,10 +522,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -679,53 +529,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,11 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,83 +874,80 @@
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="8" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="60">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="60">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4">
         <v>1.157407407407407E-6</v>
@@ -1136,49 +961,48 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="4">
+        <v>67</v>
+      </c>
+      <c r="N2" s="4">
         <f>E2/10</f>
         <v>1.157407407407407E-7</v>
       </c>
-      <c r="P2" s="4">
+      <c r="O2" s="4">
         <f>E2*10</f>
         <v>1.157407407407407E-5</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>67</v>
+      <c r="P2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1.157407407407407E-7</v>
       </c>
       <c r="R2" s="5">
-        <v>1.157407407407407E-7</v>
-      </c>
-      <c r="S2" s="10">
         <v>1.1574074074074069E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4">
         <v>1.157407407407407E-6</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F45" si="0">E3*3600*24</f>
+        <f t="shared" ref="F3:F41" si="0">E3*3600*24</f>
         <v>9.999999999999995E-2</v>
       </c>
       <c r="G3" s="5"/>
@@ -1186,46 +1010,45 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="4">
+        <v>66</v>
+      </c>
+      <c r="N3" s="4">
         <f>E3/5</f>
         <v>2.314814814814814E-7</v>
       </c>
-      <c r="P3" s="4">
+      <c r="O3" s="4">
         <f>E3*5</f>
         <v>5.7870370370370351E-6</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>67</v>
+      <c r="P3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1.157407407407407E-7</v>
       </c>
       <c r="R3" s="5">
-        <v>1.157407407407407E-7</v>
-      </c>
-      <c r="S3" s="10">
         <v>1.1574074074074069E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1233,44 +1056,43 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.1</v>
       </c>
       <c r="O4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="5">
         <v>0.1</v>
       </c>
-      <c r="P4" s="5">
+      <c r="R4" s="5">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1278,31 +1100,30 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>67</v>
+        <v>67</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.1</v>
       </c>
       <c r="O5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="5">
         <v>0.1</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="5">
         <v>0.9</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1312,7 +1133,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5">
         <v>7</v>
@@ -1323,66 +1144,64 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="11">
         <v>4.5</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="9" t="s">
-        <v>124</v>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4">
         <v>1.157407407407407E-6</v>
@@ -1396,43 +1215,42 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="4">
+        <v>66</v>
+      </c>
+      <c r="N8" s="4">
         <f>E8/5</f>
         <v>2.314814814814814E-7</v>
       </c>
-      <c r="P8" s="4">
+      <c r="O8" s="4">
         <f>E8*5</f>
         <v>5.7870370370370351E-6</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>67</v>
+      <c r="P8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1.157407407407407E-7</v>
       </c>
       <c r="R8" s="5">
-        <v>1.157407407407407E-7</v>
-      </c>
-      <c r="S8" s="10">
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="9" t="s">
-        <v>125</v>
+    <row r="9" spans="1:18">
+      <c r="A9" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4">
         <v>1.157407407407407E-6</v>
@@ -1446,43 +1264,42 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="4">
+        <v>67</v>
+      </c>
+      <c r="N9" s="4">
         <f>E9/10</f>
         <v>1.157407407407407E-7</v>
       </c>
-      <c r="P9" s="4">
+      <c r="O9" s="4">
         <f>E9*10</f>
         <v>1.157407407407407E-5</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>67</v>
+      <c r="P9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1.157407407407407E-7</v>
       </c>
       <c r="R9" s="5">
-        <v>1.157407407407407E-7</v>
-      </c>
-      <c r="S9" s="10">
         <v>1.157407407407407E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:18">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="8">
         <v>0.1427507995452611</v>
@@ -1493,7 +1310,7 @@
         <v>0.1427507995452611</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ref="H10:K10" si="1">$E10</f>
+        <f t="shared" ref="H10:J10" si="1">$E10</f>
         <v>0.1427507995452611</v>
       </c>
       <c r="I10" s="8">
@@ -1504,47 +1321,43 @@
         <f t="shared" si="1"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="L10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="5">
+        <v>66</v>
+      </c>
+      <c r="N10" s="5">
         <f>E10/5</f>
         <v>2.8550159909052221E-2</v>
       </c>
-      <c r="P10" s="5">
+      <c r="O10" s="5">
         <f>E10*5</f>
         <v>0.71375399772630543</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>67</v>
+      <c r="P10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1.427507995452611E-2</v>
       </c>
       <c r="R10" s="5">
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="S10" s="10">
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="8">
         <v>0.1427507995452611</v>
@@ -1555,43 +1368,42 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" ref="N11:N21" si="2">E11/5</f>
+        <v>2.8550159909052221E-2</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:O21" si="2">E11/5</f>
-        <v>2.8550159909052221E-2</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" ref="P11:P21" si="3">E11*5</f>
+        <f t="shared" ref="O11:O21" si="3">E11*5</f>
         <v>0.71375399772630543</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>67</v>
+      <c r="P11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1.427507995452611E-2</v>
       </c>
       <c r="R11" s="5">
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="S11" s="10">
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8">
         <v>0.1427507995452611</v>
@@ -1602,7 +1414,7 @@
         <v>0.1427507995452611</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" ref="H12:K12" si="4">$E12</f>
+        <f t="shared" ref="H12:J12" si="4">$E12</f>
         <v>0.1427507995452611</v>
       </c>
       <c r="I12" s="8">
@@ -1613,47 +1425,43 @@
         <f t="shared" si="4"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="K12" s="8">
-        <f t="shared" si="4"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="L12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="5">
+        <v>66</v>
+      </c>
+      <c r="N12" s="5">
         <f t="shared" si="2"/>
         <v>2.8550159909052221E-2</v>
       </c>
-      <c r="P12" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="3"/>
         <v>0.71375399772630543</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>67</v>
+      <c r="P12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1.427507995452611E-2</v>
       </c>
       <c r="R12" s="5">
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="S12" s="10">
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:18">
+      <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="8">
         <v>0.1427507995452611</v>
@@ -1664,43 +1472,42 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="5">
+        <v>66</v>
+      </c>
+      <c r="N13" s="5">
         <f t="shared" si="2"/>
         <v>2.8550159909052221E-2</v>
       </c>
-      <c r="P13" s="5">
+      <c r="O13" s="5">
         <f t="shared" si="3"/>
         <v>0.71375399772630543</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>67</v>
+      <c r="P13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1.427507995452611E-2</v>
       </c>
       <c r="R13" s="5">
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="S13" s="10">
         <v>1.4275079954526109</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:18">
+      <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="8">
         <v>0.2502723352076287</v>
@@ -1711,43 +1518,42 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>67</v>
+        <v>67</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14:N16" si="5">E14/10</f>
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" ref="O14:O16" si="5">E14/10</f>
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="P14" s="4">
         <f>E14*5</f>
         <v>1.2513616760381434</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>66</v>
+      <c r="P14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="R14" s="5">
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="S14" s="10">
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8">
         <v>0.2502723352076287</v>
@@ -1758,43 +1564,42 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="4">
+        <v>67</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="5"/>
         <v>2.502723352076287E-2</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" ref="P15:P16" si="6">E15*5</f>
+      <c r="O15" s="4">
+        <f t="shared" ref="O15:O16" si="6">E15*5</f>
         <v>1.2513616760381434</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>66</v>
+      <c r="P15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="R15" s="5">
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="S15" s="10">
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:18">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="8">
         <v>0.2502723352076287</v>
@@ -1805,43 +1610,42 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="4">
+        <v>67</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="5"/>
         <v>2.502723352076287E-2</v>
       </c>
-      <c r="P16" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="6"/>
         <v>1.2513616760381434</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>66</v>
+      <c r="P16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="R16" s="5">
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="S16" s="10">
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:18">
+      <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="8">
         <v>0.2502723352076287</v>
@@ -1852,49 +1656,48 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="L17" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="N17" s="5">
         <f t="shared" si="2"/>
         <v>5.005446704152574E-2</v>
       </c>
-      <c r="P17" s="5">
+      <c r="O17" s="5">
         <f t="shared" si="3"/>
         <v>1.2513616760381434</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>67</v>
+      <c r="P17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="R17" s="5">
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="S17" s="10">
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:18">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4">
         <f>E19/5</f>
         <v>7.6467122800187402E-6</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>0.66067594099361915</v>
       </c>
@@ -1910,51 +1713,48 @@
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="5">
+        <v>66</v>
+      </c>
+      <c r="N18" s="5">
         <f t="shared" si="2"/>
         <v>1.5293424560037481E-6</v>
       </c>
-      <c r="P18" s="5">
+      <c r="O18" s="5">
         <f t="shared" si="3"/>
         <v>3.8233561400093701E-5</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>67</v>
+      <c r="P18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1.64E-6</v>
       </c>
       <c r="R18" s="5">
-        <v>1.64E-6</v>
-      </c>
-      <c r="S18" s="10">
         <v>1.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:18">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4">
         <v>3.8233561400093701E-5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>3.3033797049680955</v>
       </c>
@@ -1963,49 +1763,48 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="5">
+        <v>66</v>
+      </c>
+      <c r="N19" s="5">
         <f t="shared" si="2"/>
         <v>7.6467122800187402E-6</v>
       </c>
-      <c r="P19" s="5">
+      <c r="O19" s="5">
         <f t="shared" si="3"/>
         <v>1.9116780700046852E-4</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>67</v>
+      <c r="P19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>8.1999999999999994E-6</v>
       </c>
       <c r="R19" s="5">
-        <v>8.1999999999999994E-6</v>
-      </c>
-      <c r="S19" s="10">
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4">
         <f>E21/5</f>
         <v>5.3526985960131182E-5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>4.6247315869553347</v>
       </c>
@@ -2021,52 +1820,49 @@
       <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="5">
+        <v>66</v>
+      </c>
+      <c r="N20" s="5">
         <f t="shared" si="2"/>
         <v>1.0705397192026236E-5</v>
       </c>
-      <c r="P20" s="5">
+      <c r="O20" s="5">
         <f t="shared" si="3"/>
         <v>2.676349298006559E-4</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>67</v>
+      <c r="P20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1.28E-6</v>
       </c>
       <c r="R20" s="5">
-        <v>1.28E-6</v>
-      </c>
-      <c r="S20" s="10">
         <v>1.2799999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:18">
+      <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="4">
         <f>E19 * 7</f>
         <v>2.676349298006559E-4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>23.12365793477667</v>
       </c>
@@ -2075,49 +1871,48 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="5">
+        <v>66</v>
+      </c>
+      <c r="N21" s="5">
         <f t="shared" si="2"/>
         <v>5.3526985960131182E-5</v>
       </c>
-      <c r="P21" s="5">
+      <c r="O21" s="5">
         <f t="shared" si="3"/>
         <v>1.3381746490032794E-3</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>67</v>
+      <c r="P21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>6.3999999999999997E-6</v>
       </c>
       <c r="R21" s="5">
-        <v>6.3999999999999997E-6</v>
-      </c>
-      <c r="S21" s="10">
         <v>6.3999999999999994E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:18">
+      <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4">
         <f>0.0000962487421256466/2</f>
         <v>4.8124371062823299E-5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>4.1579456598279325</v>
       </c>
@@ -2126,49 +1921,48 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>67</v>
+        <v>67</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:N24" si="7">E22/10</f>
+        <v>4.8124371062823301E-6</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:O24" si="7">E22/10</f>
-        <v>4.8124371062823301E-6</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" ref="P22:P24" si="8">E22*10</f>
+        <f t="shared" ref="O22:O24" si="8">E22*10</f>
         <v>4.8124371062823298E-4</v>
       </c>
-      <c r="Q22" s="5" t="s">
-        <v>67</v>
+      <c r="P22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1.5046296296296301E-6</v>
       </c>
       <c r="R22" s="5">
-        <v>1.5046296296296301E-6</v>
-      </c>
-      <c r="S22" s="10">
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:18">
+      <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4">
         <f>E22</f>
         <v>4.8124371062823299E-5</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="8">
         <f t="shared" si="0"/>
         <v>4.1579456598279325</v>
       </c>
@@ -2177,49 +1971,48 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="4">
+        <v>67</v>
+      </c>
+      <c r="N23" s="4">
         <f t="shared" si="7"/>
         <v>4.8124371062823301E-6</v>
       </c>
-      <c r="P23" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="8"/>
         <v>4.8124371062823298E-4</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>67</v>
+      <c r="P23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1.5046296296296301E-6</v>
       </c>
       <c r="R23" s="5">
-        <v>1.5046296296296301E-6</v>
-      </c>
-      <c r="S23" s="10">
         <v>1.50462962962963E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4">
         <f>E23*4.5</f>
         <v>2.1655966978270484E-4</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
         <v>18.710755469225699</v>
       </c>
@@ -2228,43 +2021,42 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="4">
+        <v>67</v>
+      </c>
+      <c r="N24" s="4">
         <f t="shared" si="7"/>
         <v>2.1655966978270485E-5</v>
       </c>
-      <c r="P24" s="4">
+      <c r="O24" s="4">
         <f t="shared" si="8"/>
         <v>2.1655966978270484E-3</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>67</v>
+      <c r="P24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>6.7708333333333347E-6</v>
       </c>
       <c r="R24" s="5">
-        <v>6.7708333333333347E-6</v>
-      </c>
-      <c r="S24" s="10">
         <v>6.7708333333333346E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:18">
+      <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -2278,22 +2070,21 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="9" t="s">
-        <v>128</v>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>47</v>
@@ -2302,7 +2093,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2321,25 +2112,22 @@
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="9" t="s">
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2349,7 +2137,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4">
         <v>6.4814814814814812E-7</v>
@@ -2371,35 +2159,32 @@
       <c r="K27" s="5">
         <v>0</v>
       </c>
-      <c r="L27" s="5">
-        <v>0</v>
+      <c r="L27" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27:N30" si="9">E27/10</f>
+        <v>6.4814814814814807E-8</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" ref="O27:O30" si="9">E27/10</f>
+        <f t="shared" ref="O27:O29" si="10">E27*10</f>
+        <v>6.4814814814814812E-6</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" s="5">
         <v>6.4814814814814807E-8</v>
       </c>
-      <c r="P27" s="4">
-        <f t="shared" ref="P27:P29" si="10">E27*10</f>
+      <c r="R27" s="5">
         <v>6.4814814814814812E-6</v>
       </c>
-      <c r="Q27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R27" s="5">
-        <v>6.4814814814814807E-8</v>
-      </c>
-      <c r="S27" s="10">
-        <v>6.4814814814814812E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2409,7 +2194,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4">
         <v>4.0509259259259258E-7</v>
@@ -2431,36 +2216,33 @@
       <c r="K28" s="5">
         <v>0</v>
       </c>
-      <c r="L28" s="5">
-        <v>0</v>
+      <c r="L28" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O28" s="4">
+        <v>67</v>
+      </c>
+      <c r="N28" s="4">
         <f t="shared" si="9"/>
         <v>4.0509259259259258E-8</v>
       </c>
-      <c r="P28" s="4">
+      <c r="O28" s="4">
         <f t="shared" si="10"/>
         <v>4.050925925925926E-6</v>
       </c>
-      <c r="Q28" s="5" t="s">
-        <v>67</v>
+      <c r="P28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>4.0509259259259258E-8</v>
       </c>
       <c r="R28" s="5">
-        <v>4.0509259259259258E-8</v>
-      </c>
-      <c r="S28" s="10">
         <v>4.050925925925926E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="9" t="s">
-        <v>92</v>
+    <row r="29" spans="1:18">
+      <c r="A29" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>46</v>
@@ -2469,7 +2251,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4">
         <v>7.6967592592592601E-6</v>
@@ -2491,35 +2273,32 @@
       <c r="K29" s="5">
         <v>0</v>
       </c>
-      <c r="L29" s="5">
-        <v>0</v>
+      <c r="L29" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O29" s="4">
+        <v>67</v>
+      </c>
+      <c r="N29" s="4">
         <f t="shared" si="9"/>
         <v>7.6967592592592605E-7</v>
       </c>
-      <c r="P29" s="4">
+      <c r="O29" s="4">
         <f t="shared" si="10"/>
         <v>7.6967592592592601E-5</v>
       </c>
-      <c r="Q29" s="5" t="s">
-        <v>67</v>
+      <c r="P29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>7.6967592592592605E-7</v>
       </c>
       <c r="R29" s="5">
-        <v>7.6967592592592605E-7</v>
-      </c>
-      <c r="S29" s="10">
         <v>7.6967592592592601E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2529,7 +2308,7 @@
         <v>51</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="8">
         <v>0.2502723352076287</v>
@@ -2540,7 +2319,7 @@
         <v>0.2502723352076287</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ref="H30:L30" si="11">$E30</f>
+        <f t="shared" ref="H30:K30" si="11">$E30</f>
         <v>0.2502723352076287</v>
       </c>
       <c r="I30" s="8">
@@ -2552,36 +2331,32 @@
         <f t="shared" si="11"/>
         <v>0.2502723352076287</v>
       </c>
-      <c r="L30" s="8">
-        <f t="shared" si="11"/>
-        <v>0.2502723352076287</v>
+      <c r="L30" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O30" s="4">
+        <v>67</v>
+      </c>
+      <c r="N30" s="4">
         <f t="shared" si="9"/>
         <v>2.502723352076287E-2</v>
       </c>
-      <c r="P30" s="4">
+      <c r="O30" s="4">
         <f>E30*5</f>
         <v>1.2513616760381434</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>67</v>
+      <c r="P30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>2.502723352076287E-2</v>
       </c>
       <c r="R30" s="5">
-        <v>2.502723352076287E-2</v>
-      </c>
-      <c r="S30" s="10">
         <v>2.5027233520762868</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2591,7 +2366,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="5">
         <f>0.01/3600/24</f>
@@ -2606,7 +2381,7 @@
         <v>1.1574074074074074E-7</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ref="H31:L31" si="12">$E31</f>
+        <f t="shared" ref="H31:K31" si="12">$E31</f>
         <v>1.1574074074074074E-7</v>
       </c>
       <c r="I31" s="5">
@@ -2621,363 +2396,410 @@
         <f t="shared" si="12"/>
         <v>1.1574074074074074E-7</v>
       </c>
-      <c r="L31" s="5">
-        <f t="shared" si="12"/>
-        <v>1.1574074074074074E-7</v>
+      <c r="L31" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
       </c>
       <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <f t="shared" ref="P31:P42" si="13">E31*10</f>
+        <f t="shared" ref="O31:O38" si="13">E31*10</f>
         <v>1.1574074074074074E-6</v>
       </c>
-      <c r="Q31" s="5" t="s">
-        <v>67</v>
+      <c r="P31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
       </c>
       <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10">
         <v>1.1574074074074074E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F32" s="5">
-        <f>E32*3600*24</f>
-        <v>1.0000000000000023E-2</v>
-      </c>
+    <row r="32" spans="1:18">
+      <c r="A32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <v>0</v>
+        <f t="shared" ref="G32:K33" si="14">$E32</f>
+        <v>0.1427507995452611</v>
       </c>
       <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="10"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F33" s="5">
-        <f>E33*3600*24</f>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8">
-        <f>$E35</f>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" ref="H35:L35" si="14">$E35</f>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="I35" s="8">
         <f t="shared" si="14"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8">
+      <c r="I32" s="5">
         <f t="shared" si="14"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="L35" s="8">
+      <c r="J32" s="5">
         <f t="shared" si="14"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="K32" s="5">
+        <f t="shared" si="14"/>
         <v>0.1427507995452611</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5">
-        <f t="shared" ref="G36:L37" si="15">$E36</f>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O36" s="4">
-        <f t="shared" ref="O36:O42" si="16">E36/10</f>
+      <c r="L32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="4">
+        <f t="shared" ref="N32:N38" si="15">E32/10</f>
         <v>1.427507995452611E-2</v>
       </c>
-      <c r="P36" s="4">
+      <c r="O32" s="4">
         <f t="shared" si="13"/>
         <v>1.4275079954526109</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>67</v>
+      <c r="P32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1.427507995452611E-2</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.4275079954526109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1427507995452611</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="4">
+        <f>E33/10</f>
+        <v>1.427507995452611E-2</v>
+      </c>
+      <c r="O33" s="4">
+        <f>E33*10</f>
+        <v>1.4275079954526109</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1.427507995452611E-2</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1.4275079954526109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6.4814814814814799E-17</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999988E-12</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="15"/>
+        <v>6.4814814814814798E-18</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="13"/>
+        <v>6.4814814814814797E-16</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>6.4814814814814798E-18</v>
+      </c>
+      <c r="R34" s="5">
+        <v>6.4814814814814797E-16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4.0509259259259248E-17</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999988E-12</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="15"/>
+        <v>4.050925925925925E-18</v>
+      </c>
+      <c r="O35" s="4">
+        <f t="shared" si="13"/>
+        <v>4.0509259259259247E-16</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>4.050925925925925E-18</v>
+      </c>
+      <c r="R35" s="5">
+        <v>4.0509259259259247E-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="5">
+        <f>0.01/3600/24</f>
+        <v>1.1574074074074074E-7</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <f>E36</f>
+        <v>1.1574074074074074E-7</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1574074074074074E-8</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="13"/>
+        <v>1.1574074074074074E-6</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>1.1574074074074074E-8</v>
       </c>
       <c r="R36" s="5">
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="S36" s="10">
-        <v>1.4275079954526109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>1.1574074074074074E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="8">
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="E37" s="5">
+        <f>0.01/3600/24</f>
+        <v>1.1574074074074074E-7</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
       <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <f>E37</f>
+        <v>1.1574074074074074E-7</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="4">
         <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="J37" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="15"/>
-        <v>0.1427507995452611</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>66</v>
+        <v>1.1574074074074074E-8</v>
       </c>
       <c r="O37" s="4">
-        <f>E37/10</f>
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="P37" s="4">
-        <f>E37*10</f>
-        <v>1.4275079954526109</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>67</v>
+        <f t="shared" si="13"/>
+        <v>1.1574074074074074E-6</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>1.1574074074074074E-8</v>
       </c>
       <c r="R37" s="5">
-        <v>1.427507995452611E-2</v>
-      </c>
-      <c r="S37" s="10">
-        <v>1.4275079954526109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="9" t="s">
-        <v>28</v>
+        <v>1.1574074074074074E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="4">
-        <v>6.4814814814814799E-17</v>
+        <v>1.1574074074074101E-7</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="0"/>
-        <v>5.5999999999999988E-12</v>
+        <v>1.0000000000000023E-2</v>
       </c>
       <c r="G38" s="5">
         <v>0</v>
@@ -2994,52 +2816,49 @@
       <c r="K38" s="5">
         <v>0</v>
       </c>
-      <c r="L38" s="5">
-        <v>0</v>
+      <c r="L38" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="15"/>
+        <v>1.15740740740741E-8</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="16"/>
-        <v>6.4814814814814798E-18</v>
-      </c>
-      <c r="P38" s="4">
         <f t="shared" si="13"/>
-        <v>6.4814814814814797E-16</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>67</v>
+        <v>1.1574074074074101E-6</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>1.15740740740741E-8</v>
       </c>
       <c r="R38" s="5">
-        <v>6.4814814814814798E-18</v>
-      </c>
-      <c r="S38" s="10">
-        <v>6.4814814814814797E-16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="9" t="s">
-        <v>29</v>
+        <v>1.1574074074074101E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="4">
-        <v>4.0509259259259248E-17</v>
+        <v>1.1574074074074101E-7</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="0"/>
-        <v>3.4999999999999988E-12</v>
+        <v>1.0000000000000023E-2</v>
       </c>
       <c r="G39" s="5">
         <v>0</v>
@@ -3056,378 +2875,255 @@
       <c r="K39" s="5">
         <v>0</v>
       </c>
-      <c r="L39" s="5">
-        <v>0</v>
+      <c r="L39" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>66</v>
+      <c r="N39" s="4">
+        <f>E39/10</f>
+        <v>1.15740740740741E-8</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="16"/>
-        <v>4.050925925925925E-18</v>
-      </c>
-      <c r="P39" s="4">
-        <f t="shared" si="13"/>
-        <v>4.0509259259259247E-16</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>67</v>
+        <f>E39*10</f>
+        <v>1.1574074074074101E-6</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>1.15740740740741E-8</v>
       </c>
       <c r="R39" s="5">
-        <v>4.050925925925925E-18</v>
-      </c>
-      <c r="S39" s="10">
-        <v>4.0509259259259247E-16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="9" t="s">
-        <v>30</v>
+        <v>1.1574074074074101E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="5">
-        <f>0.01/3600/24</f>
-        <v>1.1574074074074074E-7</v>
+      <c r="E40" s="4">
+        <v>2.083333333333333E-6</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8">
-        <f>E40</f>
-        <v>1.1574074074074074E-7</v>
-      </c>
-      <c r="L40" s="8">
-        <f>E40</f>
-        <v>1.1574074074074074E-7</v>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O40" s="4">
-        <f t="shared" si="16"/>
-        <v>1.1574074074074074E-8</v>
-      </c>
-      <c r="P40" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1574074074074074E-6</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R40" s="5">
-        <v>1.1574074074074074E-8</v>
-      </c>
-      <c r="S40" s="10">
-        <v>1.1574074074074074E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="9" t="s">
-        <v>31</v>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="5">
-        <f>0.01/3600/24</f>
-        <v>1.1574074074074074E-7</v>
+        <v>75</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2.083333333333333E-6</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="0"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="5">
         <v>0.01</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="8">
-        <f>E41</f>
-        <v>1.1574074074074074E-7</v>
-      </c>
-      <c r="L41" s="8">
-        <f>E41</f>
-        <v>1.1574074074074074E-7</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" si="16"/>
-        <v>1.1574074074074074E-8</v>
-      </c>
-      <c r="P41" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1574074074074074E-6</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R41" s="5">
-        <v>1.1574074074074074E-8</v>
-      </c>
-      <c r="S41" s="10">
-        <v>1.1574074074074074E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O42" s="4">
-        <f t="shared" si="16"/>
-        <v>1.15740740740741E-8</v>
-      </c>
-      <c r="P42" s="4">
-        <f t="shared" si="13"/>
-        <v>1.1574074074074101E-6</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R42" s="5">
-        <v>1.15740740740741E-8</v>
-      </c>
-      <c r="S42" s="10">
-        <v>1.1574074074074101E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="9" t="s">
-        <v>33</v>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O43" s="4">
-        <f>E43/10</f>
-        <v>1.15740740740741E-8</v>
-      </c>
-      <c r="P43" s="4">
-        <f>E43*10</f>
-        <v>1.1574074074074101E-6</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R43" s="5">
-        <v>1.15740740740741E-8</v>
-      </c>
-      <c r="S43" s="10">
-        <v>1.1574074074074101E-6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2.083333333333333E-6</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17999999999999997</v>
-      </c>
+      <c r="E44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="10"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="4">
-        <v>2.083333333333333E-6</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17999999999999997</v>
-      </c>
+      <c r="E45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="L45" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N45" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="10"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E46" s="5">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3435,34 +3131,33 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N46" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="E47" s="5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -3470,626 +3165,489 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N47" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="10"/>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="22" t="s">
-        <v>95</v>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" ref="F48:F49" si="16">E48*3600*24</f>
+        <v>3.024</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M48" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N48" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="22" t="s">
-        <v>96</v>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F49" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="16"/>
+        <v>3.024</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N49" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="10"/>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="22" t="s">
-        <v>97</v>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="E50" s="4">
+        <f>1.15740740740741E-07/10</f>
+        <v>1.15740740740741E-8</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" ref="F50:F51" si="17">E50*3600*24</f>
+        <v>1.0000000000000022E-3</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="N50" s="5">
+        <f t="shared" ref="N50" si="18">E50/5</f>
+        <v>2.3148148148148201E-9</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" ref="O50" si="19">E50*5</f>
+        <v>5.7870370370370503E-8</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="22" t="s">
-        <v>98</v>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.1574074074074101E-7</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000023E-2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="N51" s="4">
+        <f t="shared" ref="N51" si="20">E51/10</f>
+        <v>1.15740740740741E-8</v>
+      </c>
+      <c r="O51" s="4">
+        <f t="shared" ref="O51" si="21">E51*10</f>
+        <v>1.1574074074074101E-6</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="22" t="s">
-        <v>103</v>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" ref="F52:F53" si="17">E52*3600*24</f>
-        <v>3.024</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E52" s="13">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N52" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="10"/>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="22" t="s">
-        <v>114</v>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="4">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="17"/>
-        <v>3.024</v>
-      </c>
+      <c r="E53" s="13">
+        <v>4</v>
+      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N53" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="10"/>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="22" t="s">
-        <v>108</v>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F54" s="5">
-        <f t="shared" ref="F54:F55" si="18">E54*3600*24</f>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="13">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="10"/>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="26">
-        <v>1.1574074074074101E-7</v>
-      </c>
-      <c r="F55" s="27">
-        <f t="shared" si="18"/>
-        <v>1.0000000000000023E-2</v>
-      </c>
-      <c r="G55" s="27">
-        <v>0</v>
-      </c>
-      <c r="H55" s="27">
-        <v>0</v>
-      </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27">
-        <v>0</v>
-      </c>
-      <c r="K55" s="27">
-        <v>0</v>
-      </c>
-      <c r="L55" s="27">
-        <v>0</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="28"/>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="29" t="s">
-        <v>119</v>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="13">
+        <v>4</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="30">
-        <v>10</v>
+      <c r="E56" s="13">
+        <v>1</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N56" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="30">
-        <v>4</v>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.01</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
       <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="K57" s="5">
+        <v>0</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="M57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="29" t="s">
+      <c r="N57" s="4">
+        <f t="shared" ref="N57:N58" si="22">E57/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" ref="O57:O58" si="23">E57*10</f>
+        <v>0.1</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="30">
-        <v>10</v>
+      <c r="D58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="M58" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="30">
-        <v>4</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="32">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="N60" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" t="s">
-        <v>67</v>
-      </c>
-      <c r="N61" t="s">
-        <v>66</v>
-      </c>
-      <c r="O61" s="34">
-        <f t="shared" ref="O61:O62" si="19">E61/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="P61" s="34">
-        <f t="shared" ref="P61:P62" si="20">E61*10</f>
-        <v>0.1</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>67</v>
-      </c>
-      <c r="R61">
-        <v>1E-3</v>
-      </c>
-      <c r="S61">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" t="s">
-        <v>66</v>
-      </c>
-      <c r="N62" t="s">
-        <v>67</v>
-      </c>
-      <c r="O62" s="34">
-        <f t="shared" si="19"/>
+        <v>67</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="22"/>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="P62" s="34">
-        <f t="shared" si="20"/>
+      <c r="O58" s="4">
+        <f t="shared" si="23"/>
         <v>1E-4</v>
       </c>
-      <c r="Q62" t="s">
-        <v>67</v>
-      </c>
-      <c r="R62">
+      <c r="P58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q58" s="5">
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="S62">
+      <c r="R58" s="5">
         <v>1E-4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
